--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_7.xlsx
@@ -478,187 +478,187 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_4</t>
+          <t>model_9_7_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8150738797824255</v>
+        <v>0.008269583734393127</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06776824973115425</v>
+        <v>-0.9980341123489331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9119510284500921</v>
+        <v>-1.825884951326852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5270724514609355</v>
+        <v>-0.8476703496255351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.204658716917038</v>
+        <v>1.097553372383118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9777461290359497</v>
+        <v>1.359334111213684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1137547343969345</v>
+        <v>1.699893236160278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5711632966995239</v>
+        <v>1.519587874412537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_3</t>
+          <t>model_9_7_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8198002882342361</v>
+        <v>0.01042201535442056</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01408145784495507</v>
+        <v>-0.8426525177311099</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9117212718863178</v>
+        <v>-1.804813901391807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.54850736434715</v>
+        <v>-0.772366664405618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.199427992105484</v>
+        <v>1.095171213150024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9285855889320374</v>
+        <v>1.253622531890869</v>
       </c>
       <c r="H3" t="n">
-        <v>0.114051565527916</v>
+        <v>1.687218070030212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5452759265899658</v>
+        <v>1.457655549049377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_24</t>
+          <t>model_9_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8258563484315135</v>
+        <v>0.01775460137989338</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001936096573490476</v>
+        <v>-1.099752366865607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8047580325919024</v>
+        <v>-1.855848913971139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4995367055958387</v>
+        <v>-0.9025508770059807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1927257031202316</v>
+        <v>1.087056279182434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9174642562866211</v>
+        <v>1.428536653518677</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2522425651550293</v>
+        <v>1.717917919158936</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6044186949729919</v>
+        <v>1.564723491668701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_2</t>
+          <t>model_9_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8263033919613069</v>
+        <v>0.0304512950525373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04540829044222283</v>
+        <v>-1.115351487856711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9502864701169478</v>
+        <v>-1.920042160240762</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5918019145620037</v>
+        <v>-0.9314682215961558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1922309547662735</v>
+        <v>1.073004841804504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8741114139556885</v>
+        <v>1.439149379730225</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06422732025384903</v>
+        <v>1.756532907485962</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4929883182048798</v>
+        <v>1.588506102561951</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_23</t>
+          <t>model_9_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8263269535936133</v>
+        <v>0.04471431979167506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005241981000467688</v>
+        <v>-1.168776620700449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.803813074893417</v>
+        <v>-1.983223901092988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5019421903330672</v>
+        <v>-0.9766129596924058</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1922048777341843</v>
+        <v>1.057219743728638</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9108912944793701</v>
+        <v>1.475496411323547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2534633874893188</v>
+        <v>1.794539570808411</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6015135049819946</v>
+        <v>1.625634789466858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_22</t>
+          <t>model_9_7_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8274567280033944</v>
+        <v>0.05708626121222504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01584745416257505</v>
+        <v>-1.216055437063962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8042616364232373</v>
+        <v>-2.201672578133753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5064253130592575</v>
+        <v>-1.072506948749393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1909545809030533</v>
+        <v>1.043527722358704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9011800289154053</v>
+        <v>1.507661819458008</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2528838813304901</v>
+        <v>1.925945997238159</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5960992574691772</v>
+        <v>1.704501271247864</v>
       </c>
     </row>
     <row r="8">
@@ -668,586 +668,586 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.827492483588174</v>
+        <v>0.05719259986529035</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02118345557128487</v>
+        <v>-1.163273067173712</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9178328285387527</v>
+        <v>-2.034875755301694</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5487334078602117</v>
+        <v>-0.9919725224352751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1909150034189224</v>
+        <v>1.043410062789917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9350888729095459</v>
+        <v>1.471752047538757</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1061557531356812</v>
+        <v>1.825610399246216</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5450028777122498</v>
+        <v>1.638267040252686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_21</t>
+          <t>model_9_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8288744318398876</v>
+        <v>0.07428783910005365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02827773184028359</v>
+        <v>-1.183169751859986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.805049937947983</v>
+        <v>-2.256437918703088</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5118113521841618</v>
+        <v>-1.076948984393532</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1893855780363083</v>
+        <v>1.024490594863892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8897977471351624</v>
+        <v>1.485288500785828</v>
       </c>
       <c r="H9" t="n">
-        <v>0.251865416765213</v>
+        <v>1.958889722824097</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5895943641662598</v>
+        <v>1.708154559135437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_20</t>
+          <t>model_9_7_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8297325654796982</v>
+        <v>0.1337159399209247</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03861858432809828</v>
+        <v>-1.348043554010634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8046792015372182</v>
+        <v>-5.652616917718243</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5157758919442927</v>
+        <v>-2.318114141950082</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1884358674287796</v>
+        <v>0.9587212204933167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8803285956382751</v>
+        <v>1.597458004951477</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2523443996906281</v>
+        <v>4.001839637756348</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5848063230514526</v>
+        <v>2.728931665420532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_19</t>
+          <t>model_9_7_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8308003165591142</v>
+        <v>0.1368222699593887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04996575755949328</v>
+        <v>-1.314435477570808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8043157627961172</v>
+        <v>-5.67629933749576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5201484183609808</v>
+        <v>-2.311546431789816</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1872542053461075</v>
+        <v>0.9552834630012512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8699381351470947</v>
+        <v>1.574593305587769</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2528139650821686</v>
+        <v>4.016086101531982</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5795255899429321</v>
+        <v>2.723530054092407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_18</t>
+          <t>model_9_7_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8319972158695437</v>
+        <v>0.1696650003697758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0628131554212773</v>
+        <v>-1.180301964355464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8038205572077247</v>
+        <v>-3.875359637561898</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5250552395972041</v>
+        <v>-1.63292795400621</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1859295666217804</v>
+        <v>0.9189361929893494</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8581738471984863</v>
+        <v>1.48333740234375</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2534537315368652</v>
+        <v>2.932742118835449</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5735995173454285</v>
+        <v>2.165410995483398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_17</t>
+          <t>model_9_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8334496031945926</v>
+        <v>0.2015192028970284</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07787936433713072</v>
+        <v>-1.302388846656332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8029499176063783</v>
+        <v>-4.359234302193378</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5306638845711655</v>
+        <v>-1.852938779379683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1843222081661224</v>
+        <v>0.883682906627655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8443778157234192</v>
+        <v>1.566397547721863</v>
       </c>
       <c r="H13" t="n">
-        <v>0.254578560590744</v>
+        <v>3.223813533782959</v>
       </c>
       <c r="I13" t="n">
-        <v>0.566825807094574</v>
+        <v>2.346355438232422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_1</t>
+          <t>model_9_7_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8346771168516968</v>
+        <v>0.2088967129509747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09949584214028495</v>
+        <v>-1.314848225530678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9629647547265507</v>
+        <v>-4.142713617020108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6198941694954641</v>
+        <v>-1.78387846463489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1829637289047241</v>
+        <v>0.8755182027816772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8245838284492493</v>
+        <v>1.57487416267395</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04784762859344482</v>
+        <v>3.09356689453125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4590607881546021</v>
+        <v>2.289557695388794</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_16</t>
+          <t>model_9_7_8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8347801109137596</v>
+        <v>0.2112965652143178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09162996371284315</v>
+        <v>-0.9121407461608129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8028599138224871</v>
+        <v>-2.286337507866506</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5361387192211442</v>
+        <v>-0.9685405929453119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.18284972012043</v>
+        <v>0.8728622794151306</v>
       </c>
       <c r="G15" t="n">
-        <v>0.831786572933197</v>
+        <v>1.300897836685181</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2546948492527008</v>
+        <v>1.97687554359436</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5602137446403503</v>
+        <v>1.618995785713196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_15</t>
+          <t>model_9_7_22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8357983221600451</v>
+        <v>0.2480939639993316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1047580921198675</v>
+        <v>-1.655705585444055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8013576395141816</v>
+        <v>-5.078573859076574</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5406525813354045</v>
+        <v>-2.25526894016945</v>
       </c>
       <c r="F16" t="n">
-        <v>0.18172287940979</v>
+        <v>0.8321383595466614</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8197652697563171</v>
+        <v>1.806771636009216</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2566356956958771</v>
+        <v>3.656527757644653</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5547623634338379</v>
+        <v>2.677245616912842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_9</t>
+          <t>model_9_7_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8361321978195457</v>
+        <v>0.252875290712947</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1389904751510274</v>
+        <v>-1.568329496829891</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7930480283549086</v>
+        <v>-5.101939113396917</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5502100040191296</v>
+        <v>-2.22504086832386</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1813534051179886</v>
+        <v>0.8268469572067261</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7884190082550049</v>
+        <v>1.747326493263245</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2673712968826294</v>
+        <v>3.670583009719849</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5432196259498596</v>
+        <v>2.652384996414185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_0</t>
+          <t>model_9_7_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8364374769353633</v>
+        <v>0.2644003129939684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1285307352818842</v>
+        <v>-1.35320868641878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9866933959051936</v>
+        <v>-5.121259708978062</v>
       </c>
       <c r="E18" t="n">
-        <v>0.643493230572217</v>
+        <v>-2.137489366317392</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1810155212879181</v>
+        <v>0.8140920996665955</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7979968786239624</v>
+        <v>1.600972056388855</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01719144731760025</v>
+        <v>3.682205200195312</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4305598139762878</v>
+        <v>2.580379724502563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_10</t>
+          <t>model_9_7_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8368778781949715</v>
+        <v>0.2708586017420108</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1439556115374309</v>
+        <v>-1.353966679415374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7908232937339734</v>
+        <v>-5.027002185685125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5510825901026329</v>
+        <v>-2.105376678017563</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1805281341075897</v>
+        <v>0.8069446682929993</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7838724255561829</v>
+        <v>1.601487636566162</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2702455222606659</v>
+        <v>3.625504970550537</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5421658158302307</v>
+        <v>2.553969144821167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_14</t>
+          <t>model_9_7_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.837235067940325</v>
+        <v>0.2729026577035381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209986992480964</v>
+        <v>-1.690860566002198</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7995527177201487</v>
+        <v>-4.743082671955547</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5462625993843861</v>
+        <v>-2.155195272862731</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1801328212022781</v>
+        <v>0.8046825528144836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8048938512802124</v>
+        <v>1.830688953399658</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2589675486087799</v>
+        <v>3.454715251922607</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5479869842529297</v>
+        <v>2.59494161605835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_11</t>
+          <t>model_9_7_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8377432425013231</v>
+        <v>0.2743141064281475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.146988994724831</v>
+        <v>-1.683141423688768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7908845003591911</v>
+        <v>-4.742278719496897</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5523312605775137</v>
+        <v>-2.151532205084019</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1795704066753387</v>
+        <v>0.8031204342842102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7810947895050049</v>
+        <v>1.825437068939209</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2701664566993713</v>
+        <v>3.454231739044189</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5406576991081238</v>
+        <v>2.591928720474243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_13</t>
+          <t>model_9_7_18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8379317294631852</v>
+        <v>0.3586639582477902</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1333303408313007</v>
+        <v>-1.483140334658721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7967191044292834</v>
+        <v>-3.725530369354829</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5497852796908167</v>
+        <v>-1.713983718903235</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1793618202209473</v>
+        <v>0.7097700238227844</v>
       </c>
       <c r="G22" t="n">
-        <v>0.793601930141449</v>
+        <v>1.689369201660156</v>
       </c>
       <c r="H22" t="n">
-        <v>0.262628436088562</v>
+        <v>2.842613220214844</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5437325835227966</v>
+        <v>2.232073783874512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_12</t>
+          <t>model_9_7_14</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8380270161090615</v>
+        <v>0.3891628890758279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1421346861566446</v>
+        <v>-1.499616368426848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7933369660381261</v>
+        <v>-2.951031342831101</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5516168465422511</v>
+        <v>-1.454616696081315</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1792563647031784</v>
+        <v>0.6760166883468628</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7855398654937744</v>
+        <v>1.700578451156616</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2669979929924011</v>
+        <v>2.376718044281006</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5415205955505371</v>
+        <v>2.01876163482666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_6</t>
+          <t>model_9_7_17</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.840568335561189</v>
+        <v>0.4512284318815754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02003753856273172</v>
+        <v>-1.453145724825883</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9381383837140286</v>
+        <v>-2.516106860447353</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5755020871079808</v>
+        <v>-1.284565841456166</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1764438897371292</v>
+        <v>0.6073284149169922</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8973432183265686</v>
+        <v>1.668962955474854</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07992202043533325</v>
+        <v>2.115091800689697</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5126739144325256</v>
+        <v>1.878905773162842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_7</t>
+          <t>model_9_7_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8497369937747259</v>
+        <v>0.4775119151136697</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1596223557681558</v>
+        <v>-1.467917005900941</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8743249870293404</v>
+        <v>-2.148589897558486</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5994059209460569</v>
+        <v>-1.164541047234125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1662968695163727</v>
+        <v>0.5782403945922852</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7695265412330627</v>
+        <v>1.679012179374695</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1623656451702118</v>
+        <v>1.894014358520508</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4838048219680786</v>
+        <v>1.780193328857422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_8</t>
+          <t>model_9_7_15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8586447894982812</v>
+        <v>0.478620731160034</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2328125341514775</v>
+        <v>-1.478332272592475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8610484603872364</v>
+        <v>-2.090222764822247</v>
       </c>
       <c r="E26" t="n">
-        <v>0.622102099184042</v>
+        <v>-1.149008292401647</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1564385741949081</v>
+        <v>0.5770131945610046</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7025068998336792</v>
+        <v>1.686098217964172</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1795182228088379</v>
+        <v>1.858904004096985</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4563941955566406</v>
+        <v>1.767418622970581</v>
       </c>
     </row>
   </sheetData>
